--- a/CHIdatacontinuous.xlsx
+++ b/CHIdatacontinuous.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Dropbox (Personal)/CHI/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2055" documentId="8_{95CA2DA8-396E-A441-B6B5-FA78A4192ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77DBD5C-A78A-400C-8936-30CF07662805}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91D48A-8215-4147-A6B7-070E85372B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="20580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="169">
   <si>
     <t>Author</t>
   </si>
@@ -182,9 +180,6 @@
     <t>Criminalisation</t>
   </si>
   <si>
-    <t>Vet2017</t>
-  </si>
-  <si>
     <t>DaysRehoused</t>
   </si>
   <si>
@@ -332,9 +327,6 @@
     <t>DaysinBetterAccommodation</t>
   </si>
   <si>
-    <t>Usualcare</t>
-  </si>
-  <si>
     <t>Morse1992</t>
   </si>
   <si>
@@ -549,13 +541,16 @@
   </si>
   <si>
     <t>Mean Hospitalised Days</t>
+  </si>
+  <si>
+    <t>deVet2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,24 +986,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1048570"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F109" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L134" sqref="L134"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1140,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1184,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1230,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1276,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1320,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1408,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1452,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1672,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1716,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1760,7 +1755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1848,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1892,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1936,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2024,7 +2019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2068,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2156,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2200,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2244,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2288,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2332,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2376,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.75">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2464,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.75">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2508,9 +2503,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B35">
         <v>87.16</v>
@@ -2531,7 +2526,7 @@
         <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -2552,9 +2547,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B36">
         <v>5.26</v>
@@ -2575,7 +2570,7 @@
         <v>83</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
         <v>22</v>
@@ -2584,7 +2579,7 @@
         <v>9</v>
       </c>
       <c r="K36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L36" t="s">
         <v>18</v>
@@ -2596,9 +2591,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B37">
         <v>0.44</v>
@@ -2619,7 +2614,7 @@
         <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I37" t="s">
         <v>22</v>
@@ -2640,9 +2635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.75">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>5.15</v>
@@ -2663,7 +2658,7 @@
         <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
         <v>22</v>
@@ -2672,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="K38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" t="s">
         <v>18</v>
@@ -2684,9 +2679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.75">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>18.329999999999998</v>
@@ -2707,7 +2702,7 @@
         <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
         <v>22</v>
@@ -2728,9 +2723,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.75">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>12.6</v>
@@ -2751,7 +2746,7 @@
         <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -2760,7 +2755,7 @@
         <v>9</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" t="s">
         <v>18</v>
@@ -2772,9 +2767,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.75">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>12.8</v>
@@ -2795,30 +2790,30 @@
         <v>50</v>
       </c>
       <c r="H41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41" t="s">
         <v>55</v>
       </c>
-      <c r="I41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J41">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>56</v>
-      </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.75">
-      <c r="A42" t="s">
-        <v>57</v>
       </c>
       <c r="B42">
         <v>1.49</v>
@@ -2839,7 +2834,7 @@
         <v>31</v>
       </c>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -2860,9 +2855,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.75">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>-160.47999999999999</v>
@@ -2883,7 +2878,7 @@
         <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
@@ -2904,9 +2899,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.75">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>42.74</v>
@@ -2927,7 +2922,7 @@
         <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2948,9 +2943,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
         <v>79.33</v>
@@ -2971,7 +2966,7 @@
         <v>56</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2992,9 +2987,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.75">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>12.98</v>
@@ -3036,9 +3031,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15.75">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>43.5</v>
@@ -3059,7 +3054,7 @@
         <v>56</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I47" t="s">
         <v>22</v>
@@ -3068,7 +3063,7 @@
         <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L47" t="s">
         <v>18</v>
@@ -3080,9 +3075,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15.75">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>38.47</v>
@@ -3103,7 +3098,7 @@
         <v>56</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -3124,9 +3119,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15.75">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>68.06</v>
@@ -3147,7 +3142,7 @@
         <v>56</v>
       </c>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I49" t="s">
         <v>22</v>
@@ -3156,7 +3151,7 @@
         <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L49" t="s">
         <v>18</v>
@@ -3168,9 +3163,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>19.399999999999999</v>
@@ -3191,7 +3186,7 @@
         <v>83</v>
       </c>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I50" t="s">
         <v>22</v>
@@ -3212,9 +3207,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15.75">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51">
         <v>25.4</v>
@@ -3235,7 +3230,7 @@
         <v>83</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -3256,9 +3251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>14.6</v>
@@ -3279,7 +3274,7 @@
         <v>85</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I52" t="s">
         <v>22</v>
@@ -3300,9 +3295,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>11.3</v>
@@ -3323,7 +3318,7 @@
         <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I53" t="s">
         <v>22</v>
@@ -3344,9 +3339,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>1.8</v>
@@ -3367,7 +3362,7 @@
         <v>82</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I54" t="s">
         <v>22</v>
@@ -3376,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L54" t="s">
         <v>18</v>
@@ -3388,9 +3383,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55">
         <v>3.1</v>
@@ -3411,30 +3406,30 @@
         <v>82</v>
       </c>
       <c r="H55" t="s">
+        <v>69</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
         <v>70</v>
       </c>
-      <c r="I55" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55">
-        <v>18</v>
-      </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" t="s">
+        <v>23</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>71</v>
-      </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" t="s">
-        <v>23</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="21">
-      <c r="A56" t="s">
-        <v>72</v>
       </c>
       <c r="B56" s="2">
         <v>65.33</v>
@@ -3455,7 +3450,7 @@
         <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I56" t="s">
         <v>22</v>
@@ -3476,9 +3471,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="21">
+    <row r="57" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
         <v>561.77</v>
@@ -3499,7 +3494,7 @@
         <v>30</v>
       </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I57" t="s">
         <v>22</v>
@@ -3508,21 +3503,21 @@
         <v>9</v>
       </c>
       <c r="K57" t="s">
+        <v>70</v>
+      </c>
+      <c r="L57" t="s">
+        <v>18</v>
+      </c>
+      <c r="M57" t="s">
+        <v>23</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>71</v>
-      </c>
-      <c r="L57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" t="s">
-        <v>23</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="21">
-      <c r="A58" t="s">
-        <v>72</v>
       </c>
       <c r="B58" s="2">
         <v>37.85</v>
@@ -3543,7 +3538,7 @@
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
         <v>22</v>
@@ -3552,7 +3547,7 @@
         <v>9</v>
       </c>
       <c r="K58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
@@ -3564,9 +3559,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="21">
+    <row r="59" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2">
         <v>159</v>
@@ -3587,7 +3582,7 @@
         <v>174</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -3608,9 +3603,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="21">
+    <row r="60" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
         <v>2562</v>
@@ -3631,7 +3626,7 @@
         <v>174</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -3640,7 +3635,7 @@
         <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
@@ -3652,9 +3647,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15.75">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3675,7 +3670,7 @@
         <v>21</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I61" t="s">
         <v>22</v>
@@ -3684,7 +3679,7 @@
         <v>3</v>
       </c>
       <c r="K61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L61" t="s">
         <v>18</v>
@@ -3696,9 +3691,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15.75">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>9.3000000000000007</v>
@@ -3719,7 +3714,7 @@
         <v>21</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -3728,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="K62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L62" t="s">
         <v>18</v>
@@ -3740,9 +3735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63">
         <v>54.7</v>
@@ -3763,7 +3758,7 @@
         <v>21</v>
       </c>
       <c r="H63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s">
         <v>22</v>
@@ -3784,9 +3779,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15.75">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64">
         <v>57.3</v>
@@ -3807,7 +3802,7 @@
         <v>21</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I64" t="s">
         <v>22</v>
@@ -3816,7 +3811,7 @@
         <v>3</v>
       </c>
       <c r="K64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L64" t="s">
         <v>18</v>
@@ -3828,9 +3823,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15.75">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3">
         <v>376</v>
@@ -3851,7 +3846,7 @@
         <v>192</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -3872,9 +3867,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15.75">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="1">
         <v>70.2</v>
@@ -3895,7 +3890,7 @@
         <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -3916,9 +3911,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15.75">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1">
         <v>41.1</v>
@@ -3939,7 +3934,7 @@
         <v>90</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s">
         <v>16</v>
@@ -3948,7 +3943,7 @@
         <v>12</v>
       </c>
       <c r="K67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L67" t="s">
         <v>18</v>
@@ -3960,9 +3955,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15.75">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="1">
         <v>0.13</v>
@@ -3983,7 +3978,7 @@
         <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
@@ -4004,9 +3999,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15.75">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1">
         <v>35.700000000000003</v>
@@ -4027,7 +4022,7 @@
         <v>90</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
@@ -4048,9 +4043,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15.75">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>-54.93</v>
@@ -4071,7 +4066,7 @@
         <v>77</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s">
         <v>16</v>
@@ -4092,9 +4087,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15.75">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71">
         <v>1.19</v>
@@ -4115,7 +4110,7 @@
         <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
@@ -4124,7 +4119,7 @@
         <v>24</v>
       </c>
       <c r="K71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L71" t="s">
         <v>18</v>
@@ -4136,9 +4131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15.75">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>-0.28000000000000003</v>
@@ -4159,7 +4154,7 @@
         <v>77</v>
       </c>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
@@ -4180,9 +4175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <v>74.010000000000005</v>
@@ -4203,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -4212,7 +4207,7 @@
         <v>24</v>
       </c>
       <c r="K73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L73" t="s">
         <v>18</v>
@@ -4224,9 +4219,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1">
         <v>65.33</v>
@@ -4247,7 +4242,7 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -4268,9 +4263,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15.75">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="1">
         <v>7.7</v>
@@ -4312,9 +4307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1">
         <v>68.599999999999994</v>
@@ -4356,9 +4351,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15.75">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="1">
         <v>81</v>
@@ -4379,7 +4374,7 @@
         <v>57</v>
       </c>
       <c r="H77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -4388,7 +4383,7 @@
         <v>24</v>
       </c>
       <c r="K77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L77" t="s">
         <v>18</v>
@@ -4400,9 +4395,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15.75">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1">
         <v>43.3</v>
@@ -4423,7 +4418,7 @@
         <v>57</v>
       </c>
       <c r="H78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -4432,7 +4427,7 @@
         <v>24</v>
       </c>
       <c r="K78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L78" t="s">
         <v>18</v>
@@ -4444,9 +4439,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1">
         <v>40.4</v>
@@ -4467,7 +4462,7 @@
         <v>57</v>
       </c>
       <c r="H79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -4488,9 +4483,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15.75">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1">
         <v>1.7</v>
@@ -4511,7 +4506,7 @@
         <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I80" t="s">
         <v>22</v>
@@ -4532,9 +4527,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15.75">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="1">
         <v>7.2</v>
@@ -4555,7 +4550,7 @@
         <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I81" t="s">
         <v>22</v>
@@ -4564,7 +4559,7 @@
         <v>24</v>
       </c>
       <c r="K81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L81" t="s">
         <v>18</v>
@@ -4576,9 +4571,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15.75">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B82" s="1">
         <v>44.3</v>
@@ -4599,7 +4594,7 @@
         <v>35</v>
       </c>
       <c r="H82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
@@ -4611,7 +4606,7 @@
         <v>17</v>
       </c>
       <c r="L82" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="M82" t="s">
         <v>23</v>
@@ -4620,9 +4615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="21">
+    <row r="83" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1">
         <v>2.89</v>
@@ -4643,7 +4638,7 @@
         <v>64</v>
       </c>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -4664,9 +4659,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="21">
+    <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" s="1">
         <v>498</v>
@@ -4687,7 +4682,7 @@
         <v>64</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I84" t="s">
         <v>22</v>
@@ -4696,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="K84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L84" t="s">
         <v>18</v>
@@ -4708,9 +4703,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15.75">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B85" s="1">
         <v>0.95</v>
@@ -4731,7 +4726,7 @@
         <v>64</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -4752,9 +4747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15.75">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1">
         <v>2.83</v>
@@ -4775,7 +4770,7 @@
         <v>64</v>
       </c>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
         <v>22</v>
@@ -4796,9 +4791,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15.75">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B87" s="9">
         <v>124.7</v>
@@ -4819,7 +4814,7 @@
         <v>225</v>
       </c>
       <c r="H87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I87" t="s">
         <v>22</v>
@@ -4840,9 +4835,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B88" s="9">
         <v>142.30000000000001</v>
@@ -4863,7 +4858,7 @@
         <v>197</v>
       </c>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I88" t="s">
         <v>22</v>
@@ -4884,9 +4879,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15.75">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" s="1">
         <v>50.9</v>
@@ -4907,7 +4902,7 @@
         <v>225</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s">
         <v>22</v>
@@ -4916,7 +4911,7 @@
         <v>6</v>
       </c>
       <c r="K89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L89" t="s">
         <v>18</v>
@@ -4928,9 +4923,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B90" s="1">
         <v>51.5</v>
@@ -4951,7 +4946,7 @@
         <v>197</v>
       </c>
       <c r="H90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s">
         <v>22</v>
@@ -4960,7 +4955,7 @@
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L90" t="s">
         <v>18</v>
@@ -4972,9 +4967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15.75">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" s="1">
         <v>39</v>
@@ -4995,7 +4990,7 @@
         <v>225</v>
       </c>
       <c r="H91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I91" t="s">
         <v>22</v>
@@ -5004,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="K91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L91" t="s">
         <v>18</v>
@@ -5016,9 +5011,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15.75">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1">
         <v>39.299999999999997</v>
@@ -5039,7 +5034,7 @@
         <v>197</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
@@ -5048,7 +5043,7 @@
         <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L92" t="s">
         <v>18</v>
@@ -5060,9 +5055,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15.75">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93" s="9">
         <v>54.5</v>
@@ -5083,7 +5078,7 @@
         <v>225</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
@@ -5092,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="K93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L93" t="s">
         <v>18</v>
@@ -5104,9 +5099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B94" s="9">
         <v>55.5</v>
@@ -5127,7 +5122,7 @@
         <v>197</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
@@ -5136,7 +5131,7 @@
         <v>24</v>
       </c>
       <c r="K94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L94" t="s">
         <v>18</v>
@@ -5148,9 +5143,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15.75">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95" s="1">
         <v>54.9</v>
@@ -5171,7 +5166,7 @@
         <v>51</v>
       </c>
       <c r="H95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I95" t="s">
         <v>22</v>
@@ -5192,9 +5187,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15.75">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1">
         <v>3.4</v>
@@ -5215,7 +5210,7 @@
         <v>51</v>
       </c>
       <c r="H96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I96" t="s">
         <v>22</v>
@@ -5236,9 +5231,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15.75">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1">
         <v>484</v>
@@ -5259,7 +5254,7 @@
         <v>51</v>
       </c>
       <c r="H97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I97" t="s">
         <v>22</v>
@@ -5268,7 +5263,7 @@
         <v>6</v>
       </c>
       <c r="K97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L97" t="s">
         <v>18</v>
@@ -5280,9 +5275,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15.75">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1">
         <v>485</v>
@@ -5303,7 +5298,7 @@
         <v>51</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I98" t="s">
         <v>22</v>
@@ -5312,7 +5307,7 @@
         <v>18</v>
       </c>
       <c r="K98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L98" t="s">
         <v>18</v>
@@ -5324,9 +5319,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15.75">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B99" s="1">
         <v>1590</v>
@@ -5347,7 +5342,7 @@
         <v>51</v>
       </c>
       <c r="H99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I99" t="s">
         <v>22</v>
@@ -5356,7 +5351,7 @@
         <v>6</v>
       </c>
       <c r="K99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L99" t="s">
         <v>18</v>
@@ -5368,9 +5363,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15.75">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100" s="1">
         <v>1623</v>
@@ -5391,7 +5386,7 @@
         <v>51</v>
       </c>
       <c r="H100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I100" t="s">
         <v>22</v>
@@ -5400,7 +5395,7 @@
         <v>18</v>
       </c>
       <c r="K100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L100" t="s">
         <v>18</v>
@@ -5412,9 +5407,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15.75">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1">
         <v>4.16</v>
@@ -5435,7 +5430,7 @@
         <v>51</v>
       </c>
       <c r="H101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I101" t="s">
         <v>22</v>
@@ -5444,7 +5439,7 @@
         <v>6</v>
       </c>
       <c r="K101" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L101" t="s">
         <v>18</v>
@@ -5456,9 +5451,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>2.31</v>
@@ -5479,7 +5474,7 @@
         <v>51</v>
       </c>
       <c r="H102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I102" t="s">
         <v>22</v>
@@ -5488,7 +5483,7 @@
         <v>18</v>
       </c>
       <c r="K102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L102" t="s">
         <v>18</v>
@@ -5500,9 +5495,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0.54</v>
@@ -5523,7 +5518,7 @@
         <v>51</v>
       </c>
       <c r="H103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I103" t="s">
         <v>22</v>
@@ -5544,9 +5539,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B104">
         <v>0.32</v>
@@ -5567,7 +5562,7 @@
         <v>51</v>
       </c>
       <c r="H104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I104" t="s">
         <v>22</v>
@@ -5588,9 +5583,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>6.09</v>
@@ -5611,7 +5606,7 @@
         <v>51</v>
       </c>
       <c r="H105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I105" t="s">
         <v>22</v>
@@ -5620,7 +5615,7 @@
         <v>6</v>
       </c>
       <c r="K105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L105" t="s">
         <v>18</v>
@@ -5632,9 +5627,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106">
         <v>6.03</v>
@@ -5655,7 +5650,7 @@
         <v>51</v>
       </c>
       <c r="H106" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -5664,7 +5659,7 @@
         <v>18</v>
       </c>
       <c r="K106" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L106" t="s">
         <v>18</v>
@@ -5676,9 +5671,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>1.61</v>
@@ -5699,7 +5694,7 @@
         <v>51</v>
       </c>
       <c r="H107" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I107" t="s">
         <v>22</v>
@@ -5720,9 +5715,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B108">
         <v>0.9</v>
@@ -5743,7 +5738,7 @@
         <v>51</v>
       </c>
       <c r="H108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I108" t="s">
         <v>22</v>
@@ -5764,9 +5759,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -5808,9 +5803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>39.5</v>
@@ -5831,7 +5826,7 @@
         <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I110" t="s">
         <v>22</v>
@@ -5852,9 +5847,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111">
         <v>42.8</v>
@@ -5875,7 +5870,7 @@
         <v>21</v>
       </c>
       <c r="H111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I111" t="s">
         <v>22</v>
@@ -5884,7 +5879,7 @@
         <v>6</v>
       </c>
       <c r="K111" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L111" t="s">
         <v>18</v>
@@ -5896,9 +5891,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>1.6</v>
@@ -5919,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="H112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I112" t="s">
         <v>22</v>
@@ -5940,9 +5935,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>46</v>
@@ -5963,7 +5958,7 @@
         <v>8</v>
       </c>
       <c r="H113" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I113" t="s">
         <v>22</v>
@@ -5972,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="K113" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L113" t="s">
         <v>18</v>
@@ -5984,9 +5979,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>881</v>
@@ -6007,7 +6002,7 @@
         <v>417</v>
       </c>
       <c r="H114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I114" t="s">
         <v>22</v>
@@ -6016,7 +6011,7 @@
         <v>24</v>
       </c>
       <c r="K114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L114" t="s">
         <v>18</v>
@@ -6028,9 +6023,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>87.07</v>
@@ -6051,7 +6046,7 @@
         <v>481</v>
       </c>
       <c r="H115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
         <v>22</v>
@@ -6060,7 +6055,7 @@
         <v>6</v>
       </c>
       <c r="K115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L115" t="s">
         <v>18</v>
@@ -6072,9 +6067,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B116">
         <v>34.93</v>
@@ -6095,7 +6090,7 @@
         <v>481</v>
       </c>
       <c r="H116" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I116" t="s">
         <v>22</v>
@@ -6116,9 +6111,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>72.599999999999994</v>
@@ -6139,7 +6134,7 @@
         <v>337</v>
       </c>
       <c r="H117" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I117" t="s">
         <v>22</v>
@@ -6160,9 +6155,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>62.53</v>
@@ -6183,7 +6178,7 @@
         <v>337</v>
       </c>
       <c r="H118" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I118" t="s">
         <v>22</v>
@@ -6192,7 +6187,7 @@
         <v>24</v>
       </c>
       <c r="K118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L118" t="s">
         <v>18</v>
@@ -6204,9 +6199,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119">
         <v>32.57</v>
@@ -6227,7 +6222,7 @@
         <v>337</v>
       </c>
       <c r="H119" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I119" t="s">
         <v>22</v>
@@ -6248,9 +6243,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120">
         <v>1.47</v>
@@ -6271,7 +6266,7 @@
         <v>337</v>
       </c>
       <c r="H120" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I120" t="s">
         <v>22</v>
@@ -6292,9 +6287,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>58.39</v>
@@ -6336,9 +6331,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>50.81</v>
@@ -6380,9 +6375,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0.25</v>
@@ -6403,7 +6398,7 @@
         <v>94</v>
       </c>
       <c r="H123" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I123" t="s">
         <v>22</v>
@@ -6424,9 +6419,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>0.26</v>
@@ -6447,7 +6442,7 @@
         <v>94</v>
       </c>
       <c r="H124" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I124" t="s">
         <v>22</v>
@@ -6468,9 +6463,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>0.26</v>
@@ -6491,7 +6486,7 @@
         <v>94</v>
       </c>
       <c r="H125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
         <v>22</v>
@@ -6500,7 +6495,7 @@
         <v>36</v>
       </c>
       <c r="K125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L125" t="s">
         <v>18</v>
@@ -6512,9 +6507,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126">
         <v>0.28000000000000003</v>
@@ -6535,7 +6530,7 @@
         <v>94</v>
       </c>
       <c r="H126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
         <v>22</v>
@@ -6544,7 +6539,7 @@
         <v>36</v>
       </c>
       <c r="K126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L126" t="s">
         <v>18</v>
@@ -6556,9 +6551,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B127">
         <v>0.22500000000000001</v>
@@ -6579,7 +6574,7 @@
         <v>94</v>
       </c>
       <c r="H127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I127" t="s">
         <v>22</v>
@@ -6600,9 +6595,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B128">
         <v>0.2</v>
@@ -6623,7 +6618,7 @@
         <v>94</v>
       </c>
       <c r="H128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I128" t="s">
         <v>22</v>
@@ -6644,9 +6639,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>1.46</v>
@@ -6667,7 +6662,7 @@
         <v>94</v>
       </c>
       <c r="H129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I129" t="s">
         <v>22</v>
@@ -6688,9 +6683,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>1.95</v>
@@ -6711,7 +6706,7 @@
         <v>94</v>
       </c>
       <c r="H130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I130" t="s">
         <v>22</v>
@@ -6720,7 +6715,7 @@
         <v>36</v>
       </c>
       <c r="K130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L130" t="s">
         <v>18</v>
@@ -6732,9 +6727,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B131">
         <v>6.96</v>
@@ -6755,7 +6750,7 @@
         <v>94</v>
       </c>
       <c r="H131" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I131" t="s">
         <v>22</v>
@@ -6764,7 +6759,7 @@
         <v>36</v>
       </c>
       <c r="K131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L131" t="s">
         <v>18</v>
@@ -6776,9 +6771,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B132">
         <v>6.82</v>
@@ -6799,7 +6794,7 @@
         <v>94</v>
       </c>
       <c r="H132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I132" t="s">
         <v>22</v>
@@ -6808,7 +6803,7 @@
         <v>36</v>
       </c>
       <c r="K132" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L132" t="s">
         <v>18</v>
@@ -6820,9 +6815,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B133">
         <v>4.3099999999999996</v>
@@ -6843,7 +6838,7 @@
         <v>94</v>
       </c>
       <c r="H133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -6852,7 +6847,7 @@
         <v>36</v>
       </c>
       <c r="K133" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L133" t="s">
         <v>18</v>
@@ -6864,9 +6859,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>3.92</v>
@@ -6887,7 +6882,7 @@
         <v>94</v>
       </c>
       <c r="H134" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I134" t="s">
         <v>22</v>
@@ -6896,7 +6891,7 @@
         <v>36</v>
       </c>
       <c r="K134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L134" t="s">
         <v>18</v>
@@ -6908,7 +6903,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1048570" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6927,12 +6921,12 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6973,7 +6967,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -6989,18 +6983,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7041,12 +7035,12 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="7">
         <v>75.099999999999994</v>
@@ -7067,20 +7061,20 @@
         <v>174</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="M2" s="7" t="s">
         <v>23</v>
       </c>
@@ -7088,9 +7082,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="7">
         <v>1.4253246749999999</v>
@@ -7113,19 +7107,19 @@
         <v>204</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>19</v>
@@ -7134,9 +7128,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="7">
         <v>0.99025974000000005</v>
@@ -7159,19 +7153,19 @@
         <v>204</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>19</v>
@@ -7193,20 +7187,20 @@
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="8.125" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7250,9 +7244,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B2">
         <v>74.5</v>
@@ -7294,9 +7288,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>74.3</v>
@@ -7338,9 +7332,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4">
         <v>73</v>
@@ -7382,9 +7376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B5">
         <v>2.11</v>
@@ -7405,7 +7399,7 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -7426,9 +7420,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="9">
         <v>12.4</v>
@@ -7449,7 +7443,7 @@
         <v>225</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -7458,7 +7452,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -7470,9 +7464,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="9">
         <v>13.9</v>
@@ -7493,7 +7487,7 @@
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -7502,7 +7496,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
         <v>18</v>
@@ -7514,9 +7508,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="9">
         <v>29454</v>
@@ -7537,7 +7531,7 @@
         <v>197</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -7546,7 +7540,7 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -7558,9 +7552,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="9">
         <v>687</v>
@@ -7581,7 +7575,7 @@
         <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -7590,7 +7584,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -7602,9 +7596,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="9">
         <v>124.7</v>
@@ -7625,7 +7619,7 @@
         <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -7634,7 +7628,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>18</v>
@@ -7646,9 +7640,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="9">
         <v>142.30000000000001</v>
@@ -7669,7 +7663,7 @@
         <v>197</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -7678,7 +7672,7 @@
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>18</v>
@@ -7690,9 +7684,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="9">
         <v>54.5</v>
@@ -7713,7 +7707,7 @@
         <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -7722,7 +7716,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -7734,9 +7728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="9">
         <v>55.5</v>
@@ -7757,7 +7751,7 @@
         <v>197</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -7766,7 +7760,7 @@
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -7778,9 +7772,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14" s="9">
         <v>80.239999999999995</v>
@@ -7801,7 +7795,7 @@
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -7810,7 +7804,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -7835,13 +7829,13 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7885,9 +7879,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2">
         <v>307.85000000000002</v>
@@ -7908,7 +7902,7 @@
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7929,9 +7923,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3">
         <v>317.39</v>
@@ -7952,7 +7946,7 @@
         <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7973,9 +7967,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>182.29</v>
@@ -7996,19 +7990,19 @@
         <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
@@ -8017,9 +8011,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>21.81</v>
@@ -8040,19 +8034,19 @@
         <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
         <v>19</v>
@@ -8061,9 +8055,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>11.93</v>
@@ -8084,19 +8078,19 @@
         <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
@@ -8105,9 +8099,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>7.18</v>
@@ -8128,19 +8122,19 @@
         <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
         <v>19</v>
@@ -8149,9 +8143,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="7">
         <v>78.181818100000001</v>
@@ -8172,20 +8166,20 @@
         <v>141</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="M8" s="7" t="s">
         <v>23</v>
       </c>
@@ -8193,9 +8187,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" s="7">
         <v>74.545454500000005</v>
@@ -8216,20 +8210,20 @@
         <v>69</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="M9" s="7" t="s">
         <v>23</v>
       </c>
@@ -8237,7 +8231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8260,7 +8254,7 @@
         <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -8269,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
         <v>18</v>
@@ -8281,9 +8275,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>-36.21</v>
@@ -8304,7 +8298,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -8313,7 +8307,7 @@
         <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
@@ -8325,9 +8319,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12">
         <v>0.13</v>
@@ -8348,7 +8342,7 @@
         <v>95</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -8357,7 +8351,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -8369,9 +8363,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>0.04</v>
@@ -8392,7 +8386,7 @@
         <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
         <v>22</v>
@@ -8401,7 +8395,7 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -8413,9 +8407,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>0.71</v>
@@ -8436,7 +8430,7 @@
         <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -8445,7 +8439,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -8457,9 +8451,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>-5.2</v>
@@ -8480,7 +8474,7 @@
         <v>91</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -8489,7 +8483,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>

--- a/CHIdatacontinuous.xlsx
+++ b/CHIdatacontinuous.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Dropbox (Personal)/CHI/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE91D48A-8215-4147-A6B7-070E85372B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F575D-0856-7847-90B7-BAACE98E9B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="20580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,10 +989,10 @@
   <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="K93" sqref="K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4999,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="K91" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="L91" t="s">
         <v>18</v>
@@ -5043,7 +5043,7 @@
         <v>24</v>
       </c>
       <c r="K92" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="L92" t="s">
         <v>18</v>
